--- a/data/cocrystal_refcodes.xlsx
+++ b/data/cocrystal_refcodes.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pu_lab_mp\manuscripts\manuscript\JCIM\github\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AA0FE5F-0D4B-49AE-8C89-9F7463A8A33A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{118CA6D8-BEAE-45DC-B97A-62FB52DA3E33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ratio of AB" sheetId="1" r:id="rId1"/>
     <sheet name="ratio of A2B" sheetId="2" r:id="rId2"/>
+    <sheet name="other ratio" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5470" uniqueCount="5469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5488" uniqueCount="5486">
   <si>
     <t>TTFCAN15</t>
   </si>
@@ -16434,6 +16435,58 @@
   </si>
   <si>
     <t>LUTRID</t>
+  </si>
+  <si>
+    <t>HIMGAL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QOLWUM</t>
+  </si>
+  <si>
+    <t>QOLYIC</t>
+  </si>
+  <si>
+    <t>HMTTPO10</t>
+  </si>
+  <si>
+    <t>EVENIE</t>
+  </si>
+  <si>
+    <t>JURRIA</t>
+  </si>
+  <si>
+    <t>INUJUW</t>
+  </si>
+  <si>
+    <t>WEFGIZ</t>
+  </si>
+  <si>
+    <t>NASWUC</t>
+  </si>
+  <si>
+    <t>XAQZAR</t>
+  </si>
+  <si>
+    <t>LAKMOA</t>
+  </si>
+  <si>
+    <t>QIRLEK</t>
+  </si>
+  <si>
+    <t>BUSPAG</t>
+  </si>
+  <si>
+    <t>MDTTCQ</t>
+  </si>
+  <si>
+    <t>KUQPUI</t>
+  </si>
+  <si>
+    <t>MILJAV</t>
+  </si>
+  <si>
+    <t>KUMROZ</t>
   </si>
 </sst>
 </file>
@@ -16763,8 +16816,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A4145"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -37508,7 +37561,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A82D039F-DA79-4601-B6E6-C4346B56A1BC}">
   <dimension ref="A1:A1325"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A1293" workbookViewId="0">
       <selection activeCell="H30" sqref="H29:H30"/>
     </sheetView>
   </sheetViews>
@@ -44146,4 +44199,111 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{860EA451-F79A-414C-AE00-0662507F7D5D}">
+  <dimension ref="A1:A18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>4087</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A2" s="1" t="s">
+        <v>5469</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A3" s="1" t="s">
+        <v>5470</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A4" s="1" t="s">
+        <v>5471</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A5" s="1" t="s">
+        <v>5472</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A6" s="1" t="s">
+        <v>5473</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A7" s="1" t="s">
+        <v>5474</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A8" s="1" t="s">
+        <v>5475</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A9" s="1" t="s">
+        <v>5476</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A10" s="1" t="s">
+        <v>5477</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A11" s="1" t="s">
+        <v>5478</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A12" s="1" t="s">
+        <v>5479</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A13" s="1" t="s">
+        <v>5480</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A14" s="1" t="s">
+        <v>5481</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A15" s="1" t="s">
+        <v>5482</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A16" s="1" t="s">
+        <v>5483</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A17" s="1" t="s">
+        <v>5484</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A18" s="1" t="s">
+        <v>5485</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>